--- a/Dataset 2 x10000.xlsx
+++ b/Dataset 2 x10000.xlsx
@@ -350,7 +350,7 @@
   <dimension ref="A1:A997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
